--- a/biology/Histoire de la zoologie et de la botanique/Henry_Witherby/Henry_Witherby.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Witherby/Henry_Witherby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Forbes (surnommé Harry) Witherby est un ornithologue britannique, né le 7 octobre 1873 et mort le 11 décembre 1943.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’imprimerie familiale, H.F. &amp; G. Witherby &amp; Co., commence à faire paraître des livres sur les oiseaux au début du XXe siècle. Très jeune, Witherby se consacre à l’étude des oiseaux et se spécialise notamment sur l’avifaune espagnole et britannique. Il voyage beaucoup et visite l’Iran, la péninsule de Kola et le Nil Blanc. Il décrit ce dernier voyage dans son livre qui paraît en 1902, Bird Hunting on the White Nile. Witherby fonde en 1907 la revue British Birds.
 Il organise l’un des deux premiers centres de baguage d’oiseaux de l’histoire, en 1909 (qui fusionneront durant la Première Guerre mondiale). La British Trust for Ornithology (BTO) prendra en charge ce baguage, encore en cours aujourd’hui, en 1937.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
